--- a/medicine/Psychotrope/Ruché_di_Castagnole_Monferrato/Ruché_di_Castagnole_Monferrato.xlsx
+++ b/medicine/Psychotrope/Ruché_di_Castagnole_Monferrato/Ruché_di_Castagnole_Monferrato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9_di_Castagnole_Monferrato</t>
+          <t>Ruché_di_Castagnole_Monferrato</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Ruché di Castagnole Monferrato est un vin italien de la région Piémont doté d'une appellation DOC depuis le 22 octobre 1987 et DOCG depuis le 8 octobre 2010[1]. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Ces vins sont composés en large majorité par le Ruchè ou Rouquet, cépage d'origine bourguignonne ayant été importé durant le Moyen-Âge dans le Piémont. 
+Le Ruché di Castagnole Monferrato est un vin italien de la région Piémont doté d'une appellation DOC depuis le 22 octobre 1987 et DOCG depuis le 8 octobre 2010. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Ces vins sont composés en large majorité par le Ruchè ou Rouquet, cépage d'origine bourguignonne ayant été importé durant le Moyen-Âge dans le Piémont. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9_di_Castagnole_Monferrato</t>
+          <t>Ruché_di_Castagnole_Monferrato</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent dans la région du Montferrat en province d'Asti dans les 7 communes Castagnole Monferrato, Grana, Montemagno, Portacomaro, Refrancore, Scurzolengo et Viarigi. Le vignoble doit son nom à la commune Castagnole Monfrerrato ainsi qu’au cépage Ruchè. La superficie plantée en vignes est de 37 hectares.
 Le Ruché di Castagnole Monferrato est produit en deux versions : Secco et Amabile.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9_di_Castagnole_Monferrato</t>
+          <t>Ruché_di_Castagnole_Monferrato</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur :  rouge rubis pas trop foncé, avec de légers reflets violacés, parfois même tendant vers l’orange.
 odeur : intense, persistant, légèrement parfumé, fruité.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9_di_Castagnole_Monferrato</t>
+          <t>Ruché_di_Castagnole_Monferrato</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9_di_Castagnole_Monferrato</t>
+          <t>Ruché_di_Castagnole_Monferrato</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -612,7 +632,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9_di_Castagnole_Monferrato</t>
+          <t>Ruché_di_Castagnole_Monferrato</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles 
